--- a/Plate48/48Well_InputTemplate.xlsx
+++ b/Plate48/48Well_InputTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\ot2\Plate48\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jornb\Documents\GitHub\ot2\Plate48\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4908EE1-08C3-4910-B160-4F693F5DA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7144D9C-2F9C-419E-90A6-4C4E54A9F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{311A92CB-2FBA-44B8-A7D8-1BBC5AFC9850}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311A92CB-2FBA-44B8-A7D8-1BBC5AFC9850}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="22">
   <si>
     <t>n_plates</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>CAMH</t>
+  </si>
+  <si>
+    <t>Max is 500 ul</t>
   </si>
 </sst>
 </file>
@@ -121,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,21 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45736D1D-AE41-475B-A419-0C5E3B857B37}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -482,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -499,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -513,7 +523,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>500</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -529,14 +542,14 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -562,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -591,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -649,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -678,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -707,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -736,12 +749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -767,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -802,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -837,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -872,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -907,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -942,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -977,12 +990,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1182,12 +1195,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1387,12 +1400,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1468,7 @@
         <v>CIP_16_PA01_CAMH</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1492,7 +1505,7 @@
         <v>CIP_16_PA01_CAMH</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1542,7 @@
         <v>CIP_16_PA01_CAMH</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>TOB_16_PA01_CAMH</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1616,7 @@
         <v>TOB_16_PA01_CAMH</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
